--- a/Utilities.xlsx
+++ b/Utilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBCB9D6-DD4E-47A5-A75B-F083B94DE493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54862161-D328-4C8C-A44D-6AD88DB245FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{73DAAEC0-DBCE-42B0-9D53-615183050181}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{73DAAEC0-DBCE-42B0-9D53-615183050181}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Waste" sheetId="3" r:id="rId3"/>
     <sheet name="FX" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="200">
   <si>
     <t>Utilities</t>
   </si>
@@ -621,12 +624,33 @@
   </si>
   <si>
     <t>KPS</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Net Debt</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -736,6 +760,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -752,6 +783,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2">
+            <v>236.88</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>95322.401354879999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>216</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>23837</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE16370-0193-4FCE-92E3-CBBF8D4AB924}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1870,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD55168A-F113-4560-BB52-286A615D7AAB}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,11 +1974,21 @@
       <c r="D3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="E3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1926,7 +2006,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1934,6 +2014,25 @@
       </c>
       <c r="D4" t="s">
         <v>4</v>
+      </c>
+      <c r="E4">
+        <f>+[1]Main!$J$2</f>
+        <v>236.88</v>
+      </c>
+      <c r="F4" s="11">
+        <f>+[1]Main!$J$4</f>
+        <v>95322.401354879999</v>
+      </c>
+      <c r="G4" s="11">
+        <f>+[1]Main!$J$6-[1]Main!$J$5</f>
+        <v>23621</v>
+      </c>
+      <c r="H4" s="11">
+        <f>+F4+G4</f>
+        <v>118943.40135488</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1950,6 +2049,9 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1965,6 +2067,9 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1980,6 +2085,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1995,6 +2103,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2010,6 +2121,9 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2025,6 +2139,9 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2040,6 +2157,9 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2055,6 +2175,9 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2070,6 +2193,9 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2085,6 +2211,9 @@
       <c r="D14" t="s">
         <v>29</v>
       </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2100,6 +2229,9 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2115,8 +2247,11 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2130,8 +2265,11 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2145,8 +2283,11 @@
       <c r="D18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2160,8 +2301,11 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2175,8 +2319,11 @@
       <c r="D20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2190,8 +2337,11 @@
       <c r="D21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2205,8 +2355,11 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2220,8 +2373,11 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2235,8 +2391,11 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2250,8 +2409,11 @@
       <c r="D25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2265,8 +2427,11 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2280,8 +2445,11 @@
       <c r="D27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2295,8 +2463,11 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2310,8 +2481,11 @@
       <c r="D29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2325,8 +2499,11 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2340,8 +2517,11 @@
       <c r="D31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2355,8 +2535,11 @@
       <c r="D32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2370,8 +2553,11 @@
       <c r="D33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2385,8 +2571,11 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2400,8 +2589,11 @@
       <c r="D35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2415,8 +2607,11 @@
       <c r="D36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2430,8 +2625,11 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2445,8 +2643,11 @@
       <c r="D38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2460,26 +2661,35 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2488,6 +2698,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C2B40A9F-93B0-475C-8740-32215A06F0B9}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{384978A1-9B70-4F80-B1D9-5CAC25F81331}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
